--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10202_Project_Search.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10202_Project_Search.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97139F16-4B50-4338-BF73-21C5818AF336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1407E0C-6151-46B4-9A8E-59C20A415ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1. search of screen" sheetId="23" r:id="rId1"/>
@@ -24,17 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'1.2.detail of screen'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.3. Subfunction unit'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2228,9 +2218,6 @@
   </si>
   <si>
     <t>Confirmation of subfunction execution</t>
-  </si>
-  <si>
-    <t>Screen transition pattern (*1)</t>
   </si>
   <si>
     <t>Normal subfunction</t>
@@ -3000,6 +2987,10 @@
   </si>
   <si>
     <t>Subfunction name: Project search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen transition pattern</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12709,18 +12700,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="270" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="270" customWidth="1"/>
     <col min="2" max="2" width="9" style="270"/>
-    <col min="3" max="3" width="14.19921875" style="270" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="429" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" style="270" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.8984375" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.59765625" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="23.3984375" style="270" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="30.59765625" style="270" customWidth="1"/>
-    <col min="11" max="11" width="17.19921875" style="270" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="270" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="429" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="270" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="23.375" style="270" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="30.625" style="270" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="270" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="270" customWidth="1"/>
-    <col min="13" max="14" width="8.59765625" style="270" customWidth="1"/>
+    <col min="13" max="14" width="8.625" style="270" customWidth="1"/>
     <col min="15" max="17" width="9" style="270"/>
     <col min="18" max="18" width="9" style="464"/>
     <col min="19" max="19" width="9" style="465"/>
@@ -12749,7 +12740,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="270" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I6" s="270" t="s">
         <v>450</v>
@@ -12763,13 +12754,13 @@
         <v>222</v>
       </c>
       <c r="I7" s="270" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J7" s="270" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.6" thickBot="1">
+    <row r="8" spans="1:19" ht="12.75" thickBot="1">
       <c r="A8" s="271" t="s">
         <v>223</v>
       </c>
@@ -12790,7 +12781,7 @@
       <c r="P8" s="271"/>
       <c r="Q8" s="271"/>
     </row>
-    <row r="9" spans="1:19" ht="12.6" thickTop="1">
+    <row r="9" spans="1:19" ht="12.75" thickTop="1">
       <c r="F9" s="1"/>
       <c r="G9" s="35"/>
     </row>
@@ -12811,10 +12802,10 @@
         <v>228</v>
       </c>
       <c r="F10" s="952" t="s">
+        <v>623</v>
+      </c>
+      <c r="G10" s="954" t="s">
         <v>624</v>
-      </c>
-      <c r="G10" s="954" t="s">
-        <v>625</v>
       </c>
       <c r="H10" s="845" t="s">
         <v>229</v>
@@ -13083,7 +13074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="500" customFormat="1" ht="48">
+    <row r="17" spans="1:19" s="500" customFormat="1" ht="60">
       <c r="A17" s="431" t="s">
         <v>3</v>
       </c>
@@ -13604,16 +13595,16 @@
       <c r="B31" s="228"/>
       <c r="C31" s="231"/>
       <c r="D31" s="958" t="s">
+        <v>625</v>
+      </c>
+      <c r="E31" s="959" t="s">
         <v>626</v>
       </c>
-      <c r="E31" s="959" t="s">
+      <c r="F31" s="953" t="s">
         <v>627</v>
       </c>
-      <c r="F31" s="953" t="s">
+      <c r="G31" s="952" t="s">
         <v>628</v>
-      </c>
-      <c r="G31" s="952" t="s">
-        <v>629</v>
       </c>
       <c r="H31" s="960" t="s">
         <v>246</v>
@@ -13638,13 +13629,13 @@
       <c r="C32" s="231"/>
       <c r="D32" s="962"/>
       <c r="E32" s="963" t="s">
+        <v>629</v>
+      </c>
+      <c r="F32" s="964" t="s">
+        <v>627</v>
+      </c>
+      <c r="G32" s="965" t="s">
         <v>630</v>
-      </c>
-      <c r="F32" s="964" t="s">
-        <v>628</v>
-      </c>
-      <c r="G32" s="965" t="s">
-        <v>631</v>
       </c>
       <c r="H32" s="966" t="s">
         <v>246</v>
@@ -13669,13 +13660,13 @@
       <c r="C33" s="231"/>
       <c r="D33" s="962"/>
       <c r="E33" s="968" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F33" s="969" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G33" s="970" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H33" s="971" t="s">
         <v>246</v>
@@ -13700,13 +13691,13 @@
       <c r="C34" s="231"/>
       <c r="D34" s="962"/>
       <c r="E34" s="973" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F34" s="974" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G34" s="975" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H34" s="976" t="s">
         <v>246</v>
@@ -14039,7 +14030,7 @@
       <c r="R44" s="488"/>
       <c r="S44" s="489"/>
     </row>
-    <row r="45" spans="1:19" s="520" customFormat="1" ht="48">
+    <row r="45" spans="1:19" s="520" customFormat="1" ht="60">
       <c r="A45" s="463" t="s">
         <v>28</v>
       </c>
@@ -14289,7 +14280,7 @@
       <c r="R52" s="488"/>
       <c r="S52" s="489"/>
     </row>
-    <row r="53" spans="1:19" s="490" customFormat="1" ht="48">
+    <row r="53" spans="1:19" s="490" customFormat="1" ht="60">
       <c r="A53" s="537" t="s">
         <v>36</v>
       </c>
@@ -14539,7 +14530,7 @@
       <c r="R60" s="488"/>
       <c r="S60" s="489"/>
     </row>
-    <row r="61" spans="1:19" s="490" customFormat="1" ht="24">
+    <row r="61" spans="1:19" s="490" customFormat="1" ht="36">
       <c r="A61" s="537" t="s">
         <v>44</v>
       </c>
@@ -15385,13 +15376,13 @@
       <c r="C83" s="9"/>
       <c r="D83" s="403"/>
       <c r="E83" s="957" t="s">
+        <v>633</v>
+      </c>
+      <c r="F83" s="978" t="s">
+        <v>627</v>
+      </c>
+      <c r="G83" s="979" t="s">
         <v>634</v>
-      </c>
-      <c r="F83" s="978" t="s">
-        <v>628</v>
-      </c>
-      <c r="G83" s="979" t="s">
-        <v>635</v>
       </c>
       <c r="H83" s="980" t="s">
         <v>246</v>
@@ -15646,7 +15637,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="466" customFormat="1" ht="36">
+    <row r="90" spans="1:19" s="466" customFormat="1" ht="48">
       <c r="A90" s="538" t="s">
         <v>68</v>
       </c>
@@ -15827,7 +15818,7 @@
         <v>346</v>
       </c>
       <c r="J94" s="604" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K94" s="604"/>
       <c r="L94" s="526"/>
@@ -15882,7 +15873,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="466" customFormat="1" ht="24">
+    <row r="96" spans="1:19" s="466" customFormat="1" ht="36">
       <c r="A96" s="538" t="s">
         <v>132</v>
       </c>
@@ -15926,20 +15917,20 @@
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="983" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E97" s="984"/>
       <c r="F97" s="955" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G97" s="956" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H97" s="985" t="s">
         <v>246</v>
       </c>
       <c r="I97" s="986" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J97" s="43"/>
       <c r="K97" s="43"/>
@@ -16059,7 +16050,7 @@
         <v>382</v>
       </c>
       <c r="J100" s="604" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K100" s="604"/>
       <c r="L100" s="625"/>
@@ -16207,17 +16198,17 @@
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="987" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E104" s="988"/>
       <c r="F104" s="955" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G104" s="956" t="s">
+        <v>639</v>
+      </c>
+      <c r="H104" s="982" t="s">
         <v>640</v>
-      </c>
-      <c r="H104" s="982" t="s">
-        <v>641</v>
       </c>
       <c r="I104" s="982" t="s">
         <v>381</v>
@@ -16238,17 +16229,17 @@
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="989" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E105" s="990"/>
       <c r="F105" s="978" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G105" s="979" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H105" s="991" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I105" s="991" t="s">
         <v>381</v>
@@ -16269,17 +16260,17 @@
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="992" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E106" s="993"/>
       <c r="F106" s="994" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G106" s="995" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H106" s="996" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I106" s="996" t="s">
         <v>381</v>
@@ -16300,17 +16291,17 @@
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="997" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E107" s="998"/>
       <c r="F107" s="999" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G107" s="1000" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H107" s="1001" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I107" s="1001" t="s">
         <v>381</v>
@@ -16331,17 +16322,17 @@
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="1002" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E108" s="1003"/>
       <c r="F108" s="1004" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G108" s="1005" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H108" s="1006" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I108" s="1006" t="s">
         <v>381</v>
@@ -16548,7 +16539,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:19" s="466" customFormat="1" ht="36">
+    <row r="114" spans="1:19" s="466" customFormat="1" ht="48">
       <c r="A114" s="538" t="s">
         <v>89</v>
       </c>
@@ -16629,17 +16620,17 @@
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="1007" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E116" s="1008"/>
       <c r="F116" s="1009" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G116" s="1010" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H116" s="1011" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I116" s="1011" t="s">
         <v>381</v>
@@ -16753,17 +16744,17 @@
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="1012" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E120" s="1013"/>
       <c r="F120" s="1009" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G120" s="1010" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H120" s="403" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I120" s="403" t="s">
         <v>381</v>
@@ -16784,17 +16775,17 @@
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
       <c r="D121" s="424" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E121" s="1014"/>
       <c r="F121" s="1009" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G121" s="1010" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H121" s="1015" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I121" s="1015" t="s">
         <v>266</v>
@@ -17003,18 +16994,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="14.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.8984375" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.59765625" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="23.3984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="30.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="23.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="30.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.59765625" style="270" customWidth="1"/>
+    <col min="13" max="14" width="8.625" style="270" customWidth="1"/>
     <col min="15" max="15" width="9" style="270"/>
     <col min="16" max="17" width="9" style="1"/>
     <col min="18" max="19" width="9" style="254"/>
@@ -17081,7 +17072,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="270" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B6" s="270"/>
       <c r="C6" s="270"/>
@@ -17105,13 +17096,13 @@
       <c r="E7" s="270"/>
       <c r="H7" s="270"/>
       <c r="I7" s="270" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J7" s="270" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.6" thickBot="1">
+    <row r="8" spans="1:19" ht="12.75" thickBot="1">
       <c r="A8" s="271" t="s">
         <v>454</v>
       </c>
@@ -17132,7 +17123,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="12.6" thickTop="1">
+    <row r="9" spans="1:19" ht="12.75" thickTop="1">
       <c r="F9" s="1"/>
       <c r="G9" s="35"/>
     </row>
@@ -17153,10 +17144,10 @@
         <v>228</v>
       </c>
       <c r="F10" s="1016" t="s">
+        <v>623</v>
+      </c>
+      <c r="G10" s="1017" t="s">
         <v>624</v>
-      </c>
-      <c r="G10" s="1017" t="s">
-        <v>625</v>
       </c>
       <c r="H10" s="854" t="s">
         <v>229</v>
@@ -17255,7 +17246,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="899" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K12" s="91"/>
       <c r="L12" s="59"/>
@@ -17288,7 +17279,7 @@
         <v>252</v>
       </c>
       <c r="J13" s="672" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K13" s="93"/>
       <c r="L13" s="94"/>
@@ -17319,7 +17310,7 @@
         <v>256</v>
       </c>
       <c r="J14" s="672" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="27"/>
@@ -17350,7 +17341,7 @@
         <v>260</v>
       </c>
       <c r="J15" s="672" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K15" s="97"/>
       <c r="L15" s="98"/>
@@ -17381,7 +17372,7 @@
         <v>262</v>
       </c>
       <c r="J16" s="672" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="98"/>
@@ -17412,7 +17403,7 @@
         <v>461</v>
       </c>
       <c r="J17" s="900" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K17" s="100"/>
       <c r="L17" s="18"/>
@@ -17443,7 +17434,7 @@
         <v>266</v>
       </c>
       <c r="J18" s="532" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K18" s="101"/>
       <c r="L18" s="18"/>
@@ -17462,16 +17453,16 @@
       <c r="B19" s="216"/>
       <c r="C19" s="21"/>
       <c r="D19" s="1019" t="s">
+        <v>625</v>
+      </c>
+      <c r="E19" s="1020" t="s">
         <v>626</v>
       </c>
-      <c r="E19" s="1020" t="s">
+      <c r="F19" s="1021" t="s">
         <v>627</v>
       </c>
-      <c r="F19" s="1021" t="s">
+      <c r="G19" s="1022" t="s">
         <v>628</v>
-      </c>
-      <c r="G19" s="1022" t="s">
-        <v>629</v>
       </c>
       <c r="H19" s="1023" t="s">
         <v>246</v>
@@ -17496,13 +17487,13 @@
       <c r="C20" s="21"/>
       <c r="D20" s="291"/>
       <c r="E20" s="1025" t="s">
+        <v>629</v>
+      </c>
+      <c r="F20" s="1026" t="s">
+        <v>627</v>
+      </c>
+      <c r="G20" s="1027" t="s">
         <v>630</v>
-      </c>
-      <c r="F20" s="1026" t="s">
-        <v>628</v>
-      </c>
-      <c r="G20" s="1027" t="s">
-        <v>631</v>
       </c>
       <c r="H20" s="1028" t="s">
         <v>246</v>
@@ -17527,13 +17518,13 @@
       <c r="C21" s="21"/>
       <c r="D21" s="291"/>
       <c r="E21" s="1030" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F21" s="1031" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G21" s="1032" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H21" s="1033" t="s">
         <v>246</v>
@@ -17558,13 +17549,13 @@
       <c r="C22" s="21"/>
       <c r="D22" s="291"/>
       <c r="E22" s="1035" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F22" s="1036" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G22" s="1037" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H22" s="1038" t="s">
         <v>246</v>
@@ -17881,7 +17872,7 @@
       <c r="R32" s="254"/>
       <c r="S32" s="254"/>
     </row>
-    <row r="33" spans="1:19" s="5" customFormat="1" ht="48">
+    <row r="33" spans="1:19" s="5" customFormat="1" ht="60">
       <c r="A33" s="675" t="s">
         <v>476</v>
       </c>
@@ -18119,7 +18110,7 @@
       <c r="P40" s="132"/>
       <c r="Q40" s="133"/>
     </row>
-    <row r="41" spans="1:19" ht="48">
+    <row r="41" spans="1:19" ht="60">
       <c r="A41" s="689" t="s">
         <v>484</v>
       </c>
@@ -18353,7 +18344,7 @@
       <c r="P48" s="146"/>
       <c r="Q48" s="147"/>
     </row>
-    <row r="49" spans="1:19" ht="24">
+    <row r="49" spans="1:19" ht="36">
       <c r="A49" s="689" t="s">
         <v>492</v>
       </c>
@@ -18926,7 +18917,7 @@
         <v>502</v>
       </c>
       <c r="K64" s="951" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="469" t="s">
@@ -18969,7 +18960,7 @@
         <v>502</v>
       </c>
       <c r="K65" s="951" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="469" t="s">
@@ -19151,7 +19142,7 @@
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
       <c r="E71" s="1018" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F71" s="164"/>
       <c r="G71" s="165"/>
@@ -19435,20 +19426,20 @@
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="1040" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E80" s="1041"/>
       <c r="F80" s="1042" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G80" s="1043" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H80" s="1044" t="s">
         <v>246</v>
       </c>
       <c r="I80" s="1045" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J80" s="166"/>
       <c r="K80" s="166"/>
@@ -19716,17 +19707,17 @@
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
       <c r="D87" s="1046" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E87" s="1047"/>
       <c r="F87" s="1042" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G87" s="1043" t="s">
+        <v>639</v>
+      </c>
+      <c r="H87" s="1048" t="s">
         <v>640</v>
-      </c>
-      <c r="H87" s="1048" t="s">
-        <v>641</v>
       </c>
       <c r="I87" s="1048" t="s">
         <v>381</v>
@@ -19747,17 +19738,17 @@
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
       <c r="D88" s="1049" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E88" s="1050"/>
       <c r="F88" s="1051" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G88" s="1052" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H88" s="1053" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I88" s="1053" t="s">
         <v>381</v>
@@ -19778,17 +19769,17 @@
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="1054" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E89" s="1055"/>
       <c r="F89" s="1056" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G89" s="1057" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H89" s="1058" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I89" s="1058" t="s">
         <v>381</v>
@@ -19809,17 +19800,17 @@
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
       <c r="D90" s="1059" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E90" s="1060"/>
       <c r="F90" s="1061" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G90" s="1062" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H90" s="1063" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I90" s="1063" t="s">
         <v>381</v>
@@ -19840,17 +19831,17 @@
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="1064" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E91" s="1065"/>
       <c r="F91" s="1066" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G91" s="1067" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H91" s="1068" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I91" s="1068" t="s">
         <v>381</v>
@@ -20038,17 +20029,17 @@
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
       <c r="D97" s="1069" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E97" s="1070"/>
       <c r="F97" s="1071" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G97" s="1072" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H97" s="1073" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I97" s="1073" t="s">
         <v>381</v>
@@ -20174,17 +20165,17 @@
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
       <c r="D101" s="423" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E101" s="649"/>
       <c r="F101" s="1071" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G101" s="1072" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H101" s="295" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I101" s="295" t="s">
         <v>381</v>
@@ -20205,17 +20196,17 @@
       <c r="B102" s="219"/>
       <c r="C102" s="219"/>
       <c r="D102" s="1074" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E102" s="652"/>
       <c r="F102" s="1071" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G102" s="1072" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H102" s="1075" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I102" s="1075" t="s">
         <v>266</v>
@@ -20424,19 +20415,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="270" customWidth="1"/>
-    <col min="2" max="3" width="10.59765625" style="270" customWidth="1"/>
-    <col min="4" max="5" width="15.59765625" style="429" customWidth="1"/>
-    <col min="6" max="6" width="6.09765625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.59765625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.59765625" style="270" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.59765625" style="270" customWidth="1"/>
-    <col min="10" max="11" width="30.59765625" style="270" customWidth="1"/>
-    <col min="12" max="12" width="20.59765625" style="270" customWidth="1"/>
-    <col min="13" max="15" width="8.59765625" style="270" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="270" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="270" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="429" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.625" style="270" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.625" style="270" customWidth="1"/>
+    <col min="10" max="11" width="30.625" style="270" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="270" customWidth="1"/>
+    <col min="13" max="15" width="8.625" style="270" customWidth="1"/>
     <col min="16" max="17" width="9" style="270"/>
     <col min="18" max="18" width="9" style="465"/>
-    <col min="19" max="19" width="14.69921875" style="465" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" style="465" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="270"/>
   </cols>
   <sheetData>
@@ -20474,7 +20465,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="270" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F6" s="270"/>
       <c r="G6" s="270"/>
@@ -20492,13 +20483,13 @@
       <c r="F7" s="270"/>
       <c r="G7" s="270"/>
       <c r="J7" s="270" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K7" s="270" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.6" thickBot="1">
+    <row r="8" spans="1:19" ht="12.75" thickBot="1">
       <c r="A8" s="271"/>
       <c r="B8" s="271"/>
       <c r="C8" s="271"/>
@@ -20517,7 +20508,7 @@
       <c r="P8" s="271"/>
       <c r="Q8" s="271"/>
     </row>
-    <row r="9" spans="1:19" ht="12.6" thickTop="1">
+    <row r="9" spans="1:19" ht="12.75" thickTop="1">
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:19" s="850" customFormat="1" ht="24" customHeight="1">
@@ -20537,10 +20528,10 @@
         <v>228</v>
       </c>
       <c r="F10" s="1076" t="s">
+        <v>623</v>
+      </c>
+      <c r="G10" s="1077" t="s">
         <v>624</v>
-      </c>
-      <c r="G10" s="1077" t="s">
-        <v>625</v>
       </c>
       <c r="H10" s="896" t="s">
         <v>229</v>
@@ -20575,7 +20566,7 @@
       <c r="R10" s="849"/>
       <c r="S10" s="849"/>
     </row>
-    <row r="11" spans="1:19" s="466" customFormat="1" ht="84">
+    <row r="11" spans="1:19" s="466" customFormat="1" ht="96">
       <c r="A11" s="865" t="s">
         <v>101</v>
       </c>
@@ -20583,25 +20574,25 @@
         <v>559</v>
       </c>
       <c r="C11" s="796" t="s">
+        <v>662</v>
+      </c>
+      <c r="D11" s="832" t="s">
         <v>560</v>
-      </c>
-      <c r="D11" s="832" t="s">
-        <v>561</v>
       </c>
       <c r="E11" s="833"/>
       <c r="F11" s="185"/>
       <c r="G11" s="185"/>
       <c r="H11" s="796" t="s">
+        <v>561</v>
+      </c>
+      <c r="I11" s="796" t="s">
         <v>562</v>
       </c>
-      <c r="I11" s="796" t="s">
-        <v>563</v>
-      </c>
       <c r="J11" s="859" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K11" s="859" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L11" s="475"/>
       <c r="M11" s="469" t="s">
@@ -20635,10 +20626,10 @@
       <c r="H12" s="415"/>
       <c r="I12" s="415"/>
       <c r="J12" s="540" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K12" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L12" s="475"/>
       <c r="M12" s="469" t="s">
@@ -20672,10 +20663,10 @@
       <c r="H13" s="415"/>
       <c r="I13" s="415"/>
       <c r="J13" s="540" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K13" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L13" s="475"/>
       <c r="M13" s="469" t="s">
@@ -20709,10 +20700,10 @@
       <c r="H14" s="415"/>
       <c r="I14" s="415"/>
       <c r="J14" s="540" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K14" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L14" s="475"/>
       <c r="M14" s="469" t="s">
@@ -20746,10 +20737,10 @@
       <c r="H15" s="415"/>
       <c r="I15" s="415"/>
       <c r="J15" s="540" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K15" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L15" s="475"/>
       <c r="M15" s="469" t="s">
@@ -20783,10 +20774,10 @@
       <c r="H16" s="415"/>
       <c r="I16" s="415"/>
       <c r="J16" s="540" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K16" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L16" s="475"/>
       <c r="M16" s="469" t="s">
@@ -20820,10 +20811,10 @@
       <c r="H17" s="415"/>
       <c r="I17" s="415"/>
       <c r="J17" s="540" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K17" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L17" s="475"/>
       <c r="M17" s="469" t="s">
@@ -20857,10 +20848,10 @@
       <c r="H18" s="415"/>
       <c r="I18" s="415"/>
       <c r="J18" s="540" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K18" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L18" s="475"/>
       <c r="M18" s="469" t="s">
@@ -20894,10 +20885,10 @@
       <c r="H19" s="415"/>
       <c r="I19" s="415"/>
       <c r="J19" s="540" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K19" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L19" s="475"/>
       <c r="M19" s="469" t="s">
@@ -20931,10 +20922,10 @@
       <c r="H20" s="415"/>
       <c r="I20" s="415"/>
       <c r="J20" s="540" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K20" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L20" s="475"/>
       <c r="M20" s="469" t="s">
@@ -20968,10 +20959,10 @@
       <c r="H21" s="415"/>
       <c r="I21" s="415"/>
       <c r="J21" s="540" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K21" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L21" s="475"/>
       <c r="M21" s="469" t="s">
@@ -21005,10 +20996,10 @@
       <c r="H22" s="415"/>
       <c r="I22" s="415"/>
       <c r="J22" s="540" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K22" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L22" s="475"/>
       <c r="M22" s="469" t="s">
@@ -21042,10 +21033,10 @@
       <c r="H23" s="415"/>
       <c r="I23" s="415"/>
       <c r="J23" s="540" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K23" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L23" s="475"/>
       <c r="M23" s="469" t="s">
@@ -21079,10 +21070,10 @@
       <c r="H24" s="415"/>
       <c r="I24" s="415"/>
       <c r="J24" s="540" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K24" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L24" s="475"/>
       <c r="M24" s="469" t="s">
@@ -21116,10 +21107,10 @@
       <c r="H25" s="415"/>
       <c r="I25" s="415"/>
       <c r="J25" s="540" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K25" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L25" s="475"/>
       <c r="M25" s="469" t="s">
@@ -21153,10 +21144,10 @@
       <c r="H26" s="415"/>
       <c r="I26" s="415"/>
       <c r="J26" s="540" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K26" s="859" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L26" s="475"/>
       <c r="M26" s="469" t="s">
@@ -21184,19 +21175,19 @@
       <c r="B27" s="867"/>
       <c r="C27" s="867"/>
       <c r="D27" s="834" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E27" s="868"/>
       <c r="F27" s="185"/>
       <c r="G27" s="185"/>
       <c r="H27" s="796" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I27" s="796" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J27" s="860" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K27" s="859"/>
       <c r="L27" s="881"/>
@@ -21225,22 +21216,22 @@
       <c r="B28" s="870"/>
       <c r="C28" s="870"/>
       <c r="D28" s="871" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E28" s="872"/>
       <c r="F28" s="838"/>
       <c r="G28" s="838"/>
       <c r="H28" s="810" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I28" s="810" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J28" s="820" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K28" s="883" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L28" s="884"/>
       <c r="M28" s="885" t="s">
@@ -21257,29 +21248,29 @@
       <c r="R28" s="465"/>
       <c r="S28" s="465"/>
     </row>
-    <row r="29" spans="1:19" s="500" customFormat="1" ht="72">
+    <row r="29" spans="1:19" s="500" customFormat="1" ht="84">
       <c r="A29" s="866" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="867"/>
       <c r="C29" s="867"/>
       <c r="D29" s="839" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E29" s="868"/>
       <c r="F29" s="252"/>
       <c r="G29" s="252"/>
       <c r="H29" s="796" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I29" s="796" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J29" s="859" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K29" s="860" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L29" s="881"/>
       <c r="M29" s="469" t="s">
@@ -21307,19 +21298,19 @@
       <c r="B30" s="874"/>
       <c r="C30" s="874"/>
       <c r="D30" s="835" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E30" s="875"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="801" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I30" s="801" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J30" s="861" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K30" s="862"/>
       <c r="L30" s="889"/>
@@ -21338,7 +21329,7 @@
       <c r="B31" s="867"/>
       <c r="C31" s="867"/>
       <c r="D31" s="836" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E31" s="837" t="s">
         <v>383</v>
@@ -21346,16 +21337,16 @@
       <c r="F31" s="185"/>
       <c r="G31" s="185"/>
       <c r="H31" s="796" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I31" s="796" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J31" s="860" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K31" s="859" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L31" s="475"/>
       <c r="M31" s="469" t="s">
@@ -21384,18 +21375,18 @@
       <c r="C32" s="874"/>
       <c r="D32" s="874"/>
       <c r="E32" s="804" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="801" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I32" s="801" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J32" s="862" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K32" s="408"/>
       <c r="L32" s="526"/>
@@ -21415,18 +21406,18 @@
       <c r="C33" s="874"/>
       <c r="D33" s="874"/>
       <c r="E33" s="876" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="801" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I33" s="801" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J33" s="862" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K33" s="862"/>
       <c r="L33" s="889"/>
@@ -21451,16 +21442,16 @@
       <c r="F34" s="252"/>
       <c r="G34" s="252"/>
       <c r="H34" s="796" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I34" s="796" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J34" s="860" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K34" s="859" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L34" s="475"/>
       <c r="M34" s="469" t="s">
@@ -21478,7 +21469,7 @@
         <v>182</v>
       </c>
       <c r="S34" s="892" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="500" customFormat="1" ht="163.5" customHeight="1">
@@ -21488,24 +21479,24 @@
       <c r="B35" s="867"/>
       <c r="C35" s="867"/>
       <c r="D35" s="840" t="s">
+        <v>592</v>
+      </c>
+      <c r="E35" s="616" t="s">
         <v>593</v>
-      </c>
-      <c r="E35" s="616" t="s">
-        <v>594</v>
       </c>
       <c r="F35" s="252"/>
       <c r="G35" s="252"/>
       <c r="H35" s="796" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I35" s="796" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J35" s="860" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K35" s="859" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L35" s="475"/>
       <c r="M35" s="469" t="s">
@@ -21533,21 +21524,21 @@
       <c r="B36" s="867"/>
       <c r="C36" s="867"/>
       <c r="D36" s="841" t="s">
+        <v>590</v>
+      </c>
+      <c r="E36" s="616" t="s">
         <v>591</v>
-      </c>
-      <c r="E36" s="616" t="s">
-        <v>592</v>
       </c>
       <c r="F36" s="185"/>
       <c r="G36" s="185"/>
       <c r="H36" s="796" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I36" s="796" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J36" s="860" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K36" s="860"/>
       <c r="L36" s="881"/>
@@ -21576,19 +21567,19 @@
       <c r="B37" s="874"/>
       <c r="C37" s="874"/>
       <c r="D37" s="1091" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E37" s="1092"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="801" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I37" s="801" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J37" s="795" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K37" s="862"/>
       <c r="L37" s="889"/>
@@ -21606,22 +21597,22 @@
       </c>
       <c r="B38" s="874"/>
       <c r="C38" s="898" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D38" s="835" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E38" s="875"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="801" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I38" s="801" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J38" s="795" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K38" s="862"/>
       <c r="L38" s="889"/>
@@ -21640,19 +21631,19 @@
       <c r="B39" s="878"/>
       <c r="C39" s="878"/>
       <c r="D39" s="835" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E39" s="875"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="801" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I39" s="801" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J39" s="795" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K39" s="862"/>
       <c r="L39" s="889"/>
@@ -21669,24 +21660,24 @@
         <v>114</v>
       </c>
       <c r="B40" s="1078" t="s">
+        <v>655</v>
+      </c>
+      <c r="C40" s="1079" t="s">
         <v>656</v>
-      </c>
-      <c r="C40" s="1079" t="s">
-        <v>657</v>
       </c>
       <c r="D40" s="1080"/>
       <c r="E40" s="1081"/>
       <c r="F40" s="1082" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G40" s="1083" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H40" s="1084" t="s">
         <v>344</v>
       </c>
       <c r="I40" s="1084" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J40" s="183"/>
       <c r="K40" s="183"/>
@@ -21703,15 +21694,15 @@
       </c>
       <c r="B41" s="1085"/>
       <c r="C41" s="1086" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D41" s="1087"/>
       <c r="E41" s="1088"/>
       <c r="F41" s="1089" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G41" s="1089" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H41" s="1090" t="s">
         <v>4</v>
@@ -21908,11 +21899,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10202_Project_Search.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10202_Project_Search.xlsx
@@ -1,30 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1407E0C-6151-46B4-9A8E-59C20A415ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2130AD-0C76-4CB1-AEC8-B506A40C1182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.1. search of screen" sheetId="23" r:id="rId1"/>
-    <sheet name="1.2.detail of screen" sheetId="24" r:id="rId2"/>
-    <sheet name="1.3. Subfunction unit" sheetId="27" r:id="rId3"/>
-    <sheet name="validation error pattern" sheetId="29" r:id="rId4"/>
+    <sheet name="Cover" sheetId="30" r:id="rId1"/>
+    <sheet name="Revision history" sheetId="31" r:id="rId2"/>
+    <sheet name="1.1. search of screen" sheetId="23" r:id="rId3"/>
+    <sheet name="1.2.detail of screen" sheetId="24" r:id="rId4"/>
+    <sheet name="1.3. Subfunction unit" sheetId="27" r:id="rId5"/>
+    <sheet name="validation error pattern" sheetId="29" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.1. search of screen'!$A$10:$Q$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.2.detail of screen'!$A$10:$Q$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.3. Subfunction unit'!$A$10:$Q$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.1. search of screen'!$A$1:$Q$122</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.2.detail of screen'!$A$1:$Q$103</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.3. Subfunction unit'!$A$1:$Q$43</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1.1. search of screen'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'1.2.detail of screen'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.3. Subfunction unit'!$1:$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1. search of screen'!$A$10:$Q$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.2.detail of screen'!$A$10:$Q$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.3. Subfunction unit'!$A$10:$Q$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.1. search of screen'!$A$1:$Q$122</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.2.detail of screen'!$A$1:$Q$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'1.3. Subfunction unit'!$A$1:$Q$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.1. search of screen'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2.detail of screen'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.3. Subfunction unit'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="690">
   <si>
     <t>1-1-1</t>
   </si>
@@ -2993,15 +3008,189 @@
     <t>Screen transition pattern</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version 1.1</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Project name</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Sample Project</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Deliverable name</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Prepared by</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>System name</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Sample System</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Changes</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Sub-system name</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Project Management System</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Subfunction Unit Test Specification (screen)</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Version No.</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Revision date</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Changes(item numbers, etc.)</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Revision details</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Person in charge</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Version 1.0</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>(New creation)</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3. Subfunction unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Revision history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2-2-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Add "Update Event"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version 1.1</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Classification</t>
+    <phoneticPr fontId="26"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;版&quot;"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -3105,8 +3294,80 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3131,8 +3392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="436">
+  <borders count="448">
     <border>
       <left/>
       <right/>
@@ -9033,16 +9300,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1093">
+  <cellXfs count="1189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -12280,13 +12691,283 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="438" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="437" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="436" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="438" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="437" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="436" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="444" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="443" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="442" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="444" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="443" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="442" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="170" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="180" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="170" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="180" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="445" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="444" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="442" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="444" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="443" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="442" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="441" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="440" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="439" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="441" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="440" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="439" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="441" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="440" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="439" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="438" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="437" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="436" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="438" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="437" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="436" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="438" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="437" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="436" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="441" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="440" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="439" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="441" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="440" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="439" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="426" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="438" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="437" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="436" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="437" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="436" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="438" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="437" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="436" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="438" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="437" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="436" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="438" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="436" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="438" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="437" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="446" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="447" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="438" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="436" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="パーセント 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="6" xr:uid="{D6ABA199-7AB6-42C8-AA68-1CF9DB9251D6}"/>
+    <cellStyle name="標準_画面標準定義" xfId="7" xr:uid="{EC809E57-4B5B-4ECB-B8DA-1EA47CB75BA2}"/>
     <cellStyle name="標準_方式設計書(14.開発標準：D03サンプル_自動テスト仕様書：ＤＢアクセス)_V1.00" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12368,6 +13049,468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF99FDE2-D230-4918-959A-CBC55D8610BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
+          <a:chOff x="591" y="61"/>
+          <a:chExt cx="147" cy="62"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4934BAB6-6D1F-46CC-B06F-04B65DE9CC67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="591" y="61"/>
+            <a:ext cx="147" cy="28"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="1000"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>CONFIDENTIAL</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEF60E3-51FA-4183-8E72-293067E1D763}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="591" y="89"/>
+            <a:ext cx="147" cy="34"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="800"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ 明朝"/>
+                <a:ea typeface="ＭＳ 明朝"/>
+              </a:rPr>
+              <a:t>PROJECT PERSONNEL ONLY</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DAC4A7-11E1-4B60-929E-07965634539F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1590675" y="1590675"/>
+          <a:ext cx="6562725" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="107763" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="90000" tIns="43200" rIns="90000" bIns="43200" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sample Project</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Subfunction Unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Test Specification (screen)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="2200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Project Management System/Project Management/Project Search</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12690,13 +13833,2052 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DCEB9E-31EA-4323-900C-EEE459B252FC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K513"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="6.625" style="1093"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B1" s="1094"/>
+      <c r="C1" s="1095"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A2" s="1096"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F22" s="1097"/>
+      <c r="H22" s="1097"/>
+    </row>
+    <row r="23" spans="6:11" ht="17.25" customHeight="1">
+      <c r="F23" s="1097"/>
+      <c r="G23" s="1097"/>
+      <c r="H23" s="1097"/>
+      <c r="J23" s="1098" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F24" s="1097"/>
+      <c r="G24" s="1097"/>
+      <c r="H24" s="1097"/>
+    </row>
+    <row r="25" spans="6:11" ht="18" customHeight="1">
+      <c r="F25" s="1097"/>
+      <c r="G25" s="1097"/>
+      <c r="H25" s="1097"/>
+      <c r="I25" s="1188">
+        <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
+        <v>43896</v>
+      </c>
+      <c r="J25" s="1188"/>
+      <c r="K25" s="1188"/>
+    </row>
+    <row r="26" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F26" s="1097"/>
+      <c r="G26" s="1097"/>
+      <c r="H26" s="1097"/>
+    </row>
+    <row r="27" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F27" s="1097"/>
+      <c r="G27" s="1097"/>
+      <c r="H27" s="1097"/>
+    </row>
+    <row r="28" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F28" s="1099"/>
+      <c r="G28" s="1097"/>
+      <c r="H28" s="1097"/>
+    </row>
+    <row r="29" spans="6:11" ht="15" customHeight="1">
+      <c r="F29" s="1097"/>
+      <c r="H29" s="1097"/>
+    </row>
+    <row r="30" spans="6:11" ht="13.5" customHeight="1">
+      <c r="F30" s="1097"/>
+      <c r="G30" s="1100"/>
+      <c r="H30" s="1097"/>
+    </row>
+    <row r="31" spans="6:11" ht="18.75" customHeight="1">
+      <c r="F31" s="1097"/>
+      <c r="G31" s="1100"/>
+      <c r="H31" s="1097"/>
+    </row>
+    <row r="32" spans="6:11" ht="18.75">
+      <c r="F32" s="1097"/>
+      <c r="G32" s="1100"/>
+      <c r="H32" s="1097"/>
+      <c r="J32" s="1101"/>
+    </row>
+    <row r="33" spans="6:10" ht="18.75">
+      <c r="F33" s="1097"/>
+      <c r="H33" s="1097"/>
+      <c r="J33" s="1102"/>
+    </row>
+    <row r="34" spans="6:10" ht="18.75">
+      <c r="F34" s="1097"/>
+      <c r="H34" s="1097"/>
+      <c r="J34" s="1101"/>
+    </row>
+    <row r="35" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="36" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="37" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="38" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="39" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:10" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I25:K25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5502EBE7-7E8B-4412-A3A0-7B5025556B5F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AN34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="1182"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="1150" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="1103" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="1104"/>
+      <c r="C1" s="1104"/>
+      <c r="D1" s="1105"/>
+      <c r="E1" s="1106" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1" s="1107"/>
+      <c r="G1" s="1107"/>
+      <c r="H1" s="1107"/>
+      <c r="I1" s="1107"/>
+      <c r="J1" s="1107"/>
+      <c r="K1" s="1107"/>
+      <c r="L1" s="1107"/>
+      <c r="M1" s="1107"/>
+      <c r="N1" s="1108"/>
+      <c r="O1" s="1109" t="s">
+        <v>667</v>
+      </c>
+      <c r="P1" s="1110"/>
+      <c r="Q1" s="1110"/>
+      <c r="R1" s="1111"/>
+      <c r="S1" s="1112" t="s">
+        <v>674</v>
+      </c>
+      <c r="T1" s="1113"/>
+      <c r="U1" s="1113"/>
+      <c r="V1" s="1113"/>
+      <c r="W1" s="1113"/>
+      <c r="X1" s="1113"/>
+      <c r="Y1" s="1113"/>
+      <c r="Z1" s="1114"/>
+      <c r="AA1" s="1103" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB1" s="1105"/>
+      <c r="AC1" s="1142" t="str">
+        <f>IF(AF8="","",AF8)</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="1143"/>
+      <c r="AE1" s="1143"/>
+      <c r="AF1" s="1144"/>
+      <c r="AG1" s="1145">
+        <f>IF(D8="","",D8)</f>
+        <v>43808</v>
+      </c>
+      <c r="AH1" s="1146"/>
+      <c r="AI1" s="1147"/>
+      <c r="AJ1" s="1148"/>
+      <c r="AK1" s="1148"/>
+      <c r="AL1" s="1148"/>
+      <c r="AM1" s="1148"/>
+      <c r="AN1" s="1149"/>
+    </row>
+    <row r="2" spans="1:40" s="1150" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="1103" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" s="1104"/>
+      <c r="C2" s="1104"/>
+      <c r="D2" s="1105"/>
+      <c r="E2" s="1106" t="s">
+        <v>670</v>
+      </c>
+      <c r="F2" s="1107"/>
+      <c r="G2" s="1107"/>
+      <c r="H2" s="1107"/>
+      <c r="I2" s="1107"/>
+      <c r="J2" s="1107"/>
+      <c r="K2" s="1107"/>
+      <c r="L2" s="1107"/>
+      <c r="M2" s="1107"/>
+      <c r="N2" s="1108"/>
+      <c r="O2" s="1115"/>
+      <c r="P2" s="1116"/>
+      <c r="Q2" s="1116"/>
+      <c r="R2" s="1117"/>
+      <c r="S2" s="1118"/>
+      <c r="T2" s="1119"/>
+      <c r="U2" s="1119"/>
+      <c r="V2" s="1119"/>
+      <c r="W2" s="1119"/>
+      <c r="X2" s="1119"/>
+      <c r="Y2" s="1119"/>
+      <c r="Z2" s="1120"/>
+      <c r="AA2" s="1103" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB2" s="1105"/>
+      <c r="AC2" s="1151" t="str">
+        <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="1152"/>
+      <c r="AE2" s="1152"/>
+      <c r="AF2" s="1153"/>
+      <c r="AG2" s="1145">
+        <f>IF(D9="","",MAX(D9:F33))</f>
+        <v>43896</v>
+      </c>
+      <c r="AH2" s="1146"/>
+      <c r="AI2" s="1147"/>
+      <c r="AJ2" s="1148"/>
+      <c r="AK2" s="1148"/>
+      <c r="AL2" s="1148"/>
+      <c r="AM2" s="1148"/>
+      <c r="AN2" s="1148"/>
+    </row>
+    <row r="3" spans="1:40" s="1150" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="1103" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" s="1104"/>
+      <c r="C3" s="1104"/>
+      <c r="D3" s="1105"/>
+      <c r="E3" s="1106" t="s">
+        <v>673</v>
+      </c>
+      <c r="F3" s="1107"/>
+      <c r="G3" s="1107"/>
+      <c r="H3" s="1107"/>
+      <c r="I3" s="1107"/>
+      <c r="J3" s="1107"/>
+      <c r="K3" s="1107"/>
+      <c r="L3" s="1107"/>
+      <c r="M3" s="1107"/>
+      <c r="N3" s="1108"/>
+      <c r="O3" s="1121"/>
+      <c r="P3" s="1122"/>
+      <c r="Q3" s="1122"/>
+      <c r="R3" s="1123"/>
+      <c r="S3" s="1124"/>
+      <c r="T3" s="1125"/>
+      <c r="U3" s="1125"/>
+      <c r="V3" s="1125"/>
+      <c r="W3" s="1125"/>
+      <c r="X3" s="1125"/>
+      <c r="Y3" s="1125"/>
+      <c r="Z3" s="1126"/>
+      <c r="AA3" s="1103"/>
+      <c r="AB3" s="1105"/>
+      <c r="AC3" s="1142"/>
+      <c r="AD3" s="1143"/>
+      <c r="AE3" s="1143"/>
+      <c r="AF3" s="1144"/>
+      <c r="AG3" s="1145"/>
+      <c r="AH3" s="1146"/>
+      <c r="AI3" s="1147"/>
+      <c r="AJ3" s="1148"/>
+      <c r="AK3" s="1148"/>
+      <c r="AL3" s="1148"/>
+      <c r="AM3" s="1148"/>
+      <c r="AN3" s="1148"/>
+    </row>
+    <row r="5" spans="1:40" s="1150" customFormat="1" ht="22.5" customHeight="1">
+      <c r="N5" s="1154" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA5" s="1155"/>
+      <c r="AB5" s="1155"/>
+      <c r="AC5" s="1156"/>
+      <c r="AD5" s="1157"/>
+      <c r="AE5" s="1157"/>
+      <c r="AF5" s="1157"/>
+      <c r="AG5" s="1155"/>
+      <c r="AH5" s="1155"/>
+      <c r="AI5" s="1155"/>
+    </row>
+    <row r="6" spans="1:40" s="1150" customFormat="1" ht="15" customHeight="1">
+      <c r="N6" s="1154"/>
+      <c r="AA6" s="1155"/>
+      <c r="AB6" s="1155"/>
+      <c r="AC6" s="1156"/>
+      <c r="AD6" s="1157"/>
+      <c r="AE6" s="1157"/>
+      <c r="AF6" s="1157"/>
+      <c r="AG6" s="1155"/>
+      <c r="AH6" s="1155"/>
+      <c r="AI6" s="1155"/>
+    </row>
+    <row r="7" spans="1:40" s="1158" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A7" s="1127" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="1128" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" s="1129"/>
+      <c r="D7" s="1130" t="s">
+        <v>677</v>
+      </c>
+      <c r="E7" s="1131"/>
+      <c r="F7" s="1132"/>
+      <c r="G7" s="1130" t="s">
+        <v>689</v>
+      </c>
+      <c r="H7" s="1131"/>
+      <c r="I7" s="1132"/>
+      <c r="J7" s="1130" t="s">
+        <v>678</v>
+      </c>
+      <c r="K7" s="1131"/>
+      <c r="L7" s="1131"/>
+      <c r="M7" s="1131"/>
+      <c r="N7" s="1131"/>
+      <c r="O7" s="1131"/>
+      <c r="P7" s="1132"/>
+      <c r="Q7" s="1130" t="s">
+        <v>679</v>
+      </c>
+      <c r="R7" s="1131"/>
+      <c r="S7" s="1131"/>
+      <c r="T7" s="1131"/>
+      <c r="U7" s="1131"/>
+      <c r="V7" s="1131"/>
+      <c r="W7" s="1131"/>
+      <c r="X7" s="1131"/>
+      <c r="Y7" s="1131"/>
+      <c r="Z7" s="1131"/>
+      <c r="AA7" s="1131"/>
+      <c r="AB7" s="1131"/>
+      <c r="AC7" s="1131"/>
+      <c r="AD7" s="1131"/>
+      <c r="AE7" s="1132"/>
+      <c r="AF7" s="1130" t="s">
+        <v>680</v>
+      </c>
+      <c r="AG7" s="1131"/>
+      <c r="AH7" s="1131"/>
+      <c r="AI7" s="1132"/>
+    </row>
+    <row r="8" spans="1:40" s="1158" customFormat="1" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A8" s="1159">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1184" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" s="1185"/>
+      <c r="D8" s="1160">
+        <v>43808</v>
+      </c>
+      <c r="E8" s="1161"/>
+      <c r="F8" s="1162"/>
+      <c r="G8" s="1133" t="s">
+        <v>682</v>
+      </c>
+      <c r="H8" s="1134"/>
+      <c r="I8" s="1135"/>
+      <c r="J8" s="1136" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1137"/>
+      <c r="L8" s="1137"/>
+      <c r="M8" s="1137"/>
+      <c r="N8" s="1137"/>
+      <c r="O8" s="1137"/>
+      <c r="P8" s="1138"/>
+      <c r="Q8" s="1139" t="s">
+        <v>683</v>
+      </c>
+      <c r="R8" s="1140"/>
+      <c r="S8" s="1140"/>
+      <c r="T8" s="1140"/>
+      <c r="U8" s="1140"/>
+      <c r="V8" s="1140"/>
+      <c r="W8" s="1140"/>
+      <c r="X8" s="1140"/>
+      <c r="Y8" s="1140"/>
+      <c r="Z8" s="1140"/>
+      <c r="AA8" s="1140"/>
+      <c r="AB8" s="1140"/>
+      <c r="AC8" s="1140"/>
+      <c r="AD8" s="1140"/>
+      <c r="AE8" s="1141"/>
+      <c r="AF8" s="1163" t="s">
+        <v>663</v>
+      </c>
+      <c r="AG8" s="1164"/>
+      <c r="AH8" s="1164"/>
+      <c r="AI8" s="1165"/>
+    </row>
+    <row r="9" spans="1:40" s="1158" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A9" s="1166">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1186" t="s">
+        <v>688</v>
+      </c>
+      <c r="C9" s="1187"/>
+      <c r="D9" s="1167">
+        <v>43896</v>
+      </c>
+      <c r="E9" s="1168"/>
+      <c r="F9" s="1169"/>
+      <c r="G9" s="1167" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="1170"/>
+      <c r="I9" s="1171"/>
+      <c r="J9" s="1172" t="s">
+        <v>685</v>
+      </c>
+      <c r="K9" s="1173"/>
+      <c r="L9" s="1173"/>
+      <c r="M9" s="1173"/>
+      <c r="N9" s="1173"/>
+      <c r="O9" s="1173"/>
+      <c r="P9" s="1174"/>
+      <c r="Q9" s="1175" t="s">
+        <v>687</v>
+      </c>
+      <c r="R9" s="1176"/>
+      <c r="S9" s="1176"/>
+      <c r="T9" s="1176"/>
+      <c r="U9" s="1176"/>
+      <c r="V9" s="1176"/>
+      <c r="W9" s="1176"/>
+      <c r="X9" s="1176"/>
+      <c r="Y9" s="1176"/>
+      <c r="Z9" s="1176"/>
+      <c r="AA9" s="1176"/>
+      <c r="AB9" s="1176"/>
+      <c r="AC9" s="1176"/>
+      <c r="AD9" s="1176"/>
+      <c r="AE9" s="1177"/>
+      <c r="AF9" s="1172" t="s">
+        <v>663</v>
+      </c>
+      <c r="AG9" s="1173"/>
+      <c r="AH9" s="1173"/>
+      <c r="AI9" s="1174"/>
+    </row>
+    <row r="10" spans="1:40" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="1166"/>
+      <c r="B10" s="1178"/>
+      <c r="C10" s="1179"/>
+      <c r="D10" s="1167"/>
+      <c r="E10" s="1168"/>
+      <c r="F10" s="1169"/>
+      <c r="G10" s="1180"/>
+      <c r="H10" s="1170"/>
+      <c r="I10" s="1171"/>
+      <c r="J10" s="1172"/>
+      <c r="K10" s="1173"/>
+      <c r="L10" s="1173"/>
+      <c r="M10" s="1173"/>
+      <c r="N10" s="1173"/>
+      <c r="O10" s="1173"/>
+      <c r="P10" s="1174"/>
+      <c r="Q10" s="1175"/>
+      <c r="R10" s="1176"/>
+      <c r="S10" s="1176"/>
+      <c r="T10" s="1176"/>
+      <c r="U10" s="1176"/>
+      <c r="V10" s="1176"/>
+      <c r="W10" s="1176"/>
+      <c r="X10" s="1176"/>
+      <c r="Y10" s="1176"/>
+      <c r="Z10" s="1176"/>
+      <c r="AA10" s="1176"/>
+      <c r="AB10" s="1176"/>
+      <c r="AC10" s="1176"/>
+      <c r="AD10" s="1176"/>
+      <c r="AE10" s="1177"/>
+      <c r="AF10" s="1172"/>
+      <c r="AG10" s="1173"/>
+      <c r="AH10" s="1173"/>
+      <c r="AI10" s="1174"/>
+    </row>
+    <row r="11" spans="1:40" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="1166"/>
+      <c r="B11" s="1178"/>
+      <c r="C11" s="1179"/>
+      <c r="D11" s="1167"/>
+      <c r="E11" s="1168"/>
+      <c r="F11" s="1169"/>
+      <c r="G11" s="1180"/>
+      <c r="H11" s="1170"/>
+      <c r="I11" s="1171"/>
+      <c r="J11" s="1172"/>
+      <c r="K11" s="1173"/>
+      <c r="L11" s="1173"/>
+      <c r="M11" s="1173"/>
+      <c r="N11" s="1173"/>
+      <c r="O11" s="1173"/>
+      <c r="P11" s="1174"/>
+      <c r="Q11" s="1175"/>
+      <c r="R11" s="1176"/>
+      <c r="S11" s="1176"/>
+      <c r="T11" s="1176"/>
+      <c r="U11" s="1176"/>
+      <c r="V11" s="1176"/>
+      <c r="W11" s="1176"/>
+      <c r="X11" s="1176"/>
+      <c r="Y11" s="1176"/>
+      <c r="Z11" s="1176"/>
+      <c r="AA11" s="1176"/>
+      <c r="AB11" s="1176"/>
+      <c r="AC11" s="1176"/>
+      <c r="AD11" s="1176"/>
+      <c r="AE11" s="1177"/>
+      <c r="AF11" s="1172"/>
+      <c r="AG11" s="1173"/>
+      <c r="AH11" s="1173"/>
+      <c r="AI11" s="1174"/>
+    </row>
+    <row r="12" spans="1:40" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="1166"/>
+      <c r="B12" s="1178"/>
+      <c r="C12" s="1179"/>
+      <c r="D12" s="1167"/>
+      <c r="E12" s="1168"/>
+      <c r="F12" s="1169"/>
+      <c r="G12" s="1180"/>
+      <c r="H12" s="1170"/>
+      <c r="I12" s="1171"/>
+      <c r="J12" s="1172"/>
+      <c r="K12" s="1173"/>
+      <c r="L12" s="1173"/>
+      <c r="M12" s="1173"/>
+      <c r="N12" s="1173"/>
+      <c r="O12" s="1173"/>
+      <c r="P12" s="1174"/>
+      <c r="Q12" s="1175"/>
+      <c r="R12" s="1176"/>
+      <c r="S12" s="1176"/>
+      <c r="T12" s="1176"/>
+      <c r="U12" s="1176"/>
+      <c r="V12" s="1176"/>
+      <c r="W12" s="1176"/>
+      <c r="X12" s="1176"/>
+      <c r="Y12" s="1176"/>
+      <c r="Z12" s="1176"/>
+      <c r="AA12" s="1176"/>
+      <c r="AB12" s="1176"/>
+      <c r="AC12" s="1176"/>
+      <c r="AD12" s="1176"/>
+      <c r="AE12" s="1177"/>
+      <c r="AF12" s="1172"/>
+      <c r="AG12" s="1173"/>
+      <c r="AH12" s="1173"/>
+      <c r="AI12" s="1174"/>
+    </row>
+    <row r="13" spans="1:40" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="1166"/>
+      <c r="B13" s="1178"/>
+      <c r="C13" s="1179"/>
+      <c r="D13" s="1167"/>
+      <c r="E13" s="1168"/>
+      <c r="F13" s="1169"/>
+      <c r="G13" s="1180"/>
+      <c r="H13" s="1170"/>
+      <c r="I13" s="1171"/>
+      <c r="J13" s="1172"/>
+      <c r="K13" s="1173"/>
+      <c r="L13" s="1173"/>
+      <c r="M13" s="1173"/>
+      <c r="N13" s="1173"/>
+      <c r="O13" s="1173"/>
+      <c r="P13" s="1174"/>
+      <c r="Q13" s="1175"/>
+      <c r="R13" s="1176"/>
+      <c r="S13" s="1176"/>
+      <c r="T13" s="1176"/>
+      <c r="U13" s="1176"/>
+      <c r="V13" s="1176"/>
+      <c r="W13" s="1176"/>
+      <c r="X13" s="1176"/>
+      <c r="Y13" s="1176"/>
+      <c r="Z13" s="1176"/>
+      <c r="AA13" s="1176"/>
+      <c r="AB13" s="1176"/>
+      <c r="AC13" s="1176"/>
+      <c r="AD13" s="1176"/>
+      <c r="AE13" s="1177"/>
+      <c r="AF13" s="1172"/>
+      <c r="AG13" s="1173"/>
+      <c r="AH13" s="1173"/>
+      <c r="AI13" s="1174"/>
+    </row>
+    <row r="14" spans="1:40" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="1166"/>
+      <c r="B14" s="1178"/>
+      <c r="C14" s="1179"/>
+      <c r="D14" s="1167"/>
+      <c r="E14" s="1168"/>
+      <c r="F14" s="1169"/>
+      <c r="G14" s="1180"/>
+      <c r="H14" s="1170"/>
+      <c r="I14" s="1171"/>
+      <c r="J14" s="1172"/>
+      <c r="K14" s="1173"/>
+      <c r="L14" s="1173"/>
+      <c r="M14" s="1173"/>
+      <c r="N14" s="1173"/>
+      <c r="O14" s="1173"/>
+      <c r="P14" s="1174"/>
+      <c r="Q14" s="1175"/>
+      <c r="R14" s="1176"/>
+      <c r="S14" s="1176"/>
+      <c r="T14" s="1176"/>
+      <c r="U14" s="1176"/>
+      <c r="V14" s="1176"/>
+      <c r="W14" s="1176"/>
+      <c r="X14" s="1176"/>
+      <c r="Y14" s="1176"/>
+      <c r="Z14" s="1176"/>
+      <c r="AA14" s="1176"/>
+      <c r="AB14" s="1176"/>
+      <c r="AC14" s="1176"/>
+      <c r="AD14" s="1176"/>
+      <c r="AE14" s="1177"/>
+      <c r="AF14" s="1172"/>
+      <c r="AG14" s="1173"/>
+      <c r="AH14" s="1173"/>
+      <c r="AI14" s="1174"/>
+    </row>
+    <row r="15" spans="1:40" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="1166"/>
+      <c r="B15" s="1178"/>
+      <c r="C15" s="1179"/>
+      <c r="D15" s="1167"/>
+      <c r="E15" s="1168"/>
+      <c r="F15" s="1169"/>
+      <c r="G15" s="1180"/>
+      <c r="H15" s="1170"/>
+      <c r="I15" s="1171"/>
+      <c r="J15" s="1172"/>
+      <c r="K15" s="1173"/>
+      <c r="L15" s="1173"/>
+      <c r="M15" s="1173"/>
+      <c r="N15" s="1173"/>
+      <c r="O15" s="1173"/>
+      <c r="P15" s="1174"/>
+      <c r="Q15" s="1175"/>
+      <c r="R15" s="1176"/>
+      <c r="S15" s="1176"/>
+      <c r="T15" s="1176"/>
+      <c r="U15" s="1176"/>
+      <c r="V15" s="1176"/>
+      <c r="W15" s="1176"/>
+      <c r="X15" s="1176"/>
+      <c r="Y15" s="1176"/>
+      <c r="Z15" s="1176"/>
+      <c r="AA15" s="1176"/>
+      <c r="AB15" s="1176"/>
+      <c r="AC15" s="1176"/>
+      <c r="AD15" s="1176"/>
+      <c r="AE15" s="1177"/>
+      <c r="AF15" s="1172"/>
+      <c r="AG15" s="1173"/>
+      <c r="AH15" s="1173"/>
+      <c r="AI15" s="1174"/>
+    </row>
+    <row r="16" spans="1:40" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="1166"/>
+      <c r="B16" s="1178"/>
+      <c r="C16" s="1179"/>
+      <c r="D16" s="1167"/>
+      <c r="E16" s="1168"/>
+      <c r="F16" s="1169"/>
+      <c r="G16" s="1180"/>
+      <c r="H16" s="1170"/>
+      <c r="I16" s="1171"/>
+      <c r="J16" s="1172"/>
+      <c r="K16" s="1173"/>
+      <c r="L16" s="1173"/>
+      <c r="M16" s="1173"/>
+      <c r="N16" s="1173"/>
+      <c r="O16" s="1173"/>
+      <c r="P16" s="1174"/>
+      <c r="Q16" s="1175"/>
+      <c r="R16" s="1176"/>
+      <c r="S16" s="1176"/>
+      <c r="T16" s="1176"/>
+      <c r="U16" s="1176"/>
+      <c r="V16" s="1176"/>
+      <c r="W16" s="1176"/>
+      <c r="X16" s="1176"/>
+      <c r="Y16" s="1176"/>
+      <c r="Z16" s="1176"/>
+      <c r="AA16" s="1176"/>
+      <c r="AB16" s="1176"/>
+      <c r="AC16" s="1176"/>
+      <c r="AD16" s="1176"/>
+      <c r="AE16" s="1177"/>
+      <c r="AF16" s="1172"/>
+      <c r="AG16" s="1173"/>
+      <c r="AH16" s="1173"/>
+      <c r="AI16" s="1174"/>
+    </row>
+    <row r="17" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="1166"/>
+      <c r="B17" s="1178"/>
+      <c r="C17" s="1179"/>
+      <c r="D17" s="1167"/>
+      <c r="E17" s="1168"/>
+      <c r="F17" s="1169"/>
+      <c r="G17" s="1180"/>
+      <c r="H17" s="1170"/>
+      <c r="I17" s="1171"/>
+      <c r="J17" s="1172"/>
+      <c r="K17" s="1173"/>
+      <c r="L17" s="1173"/>
+      <c r="M17" s="1173"/>
+      <c r="N17" s="1173"/>
+      <c r="O17" s="1173"/>
+      <c r="P17" s="1174"/>
+      <c r="Q17" s="1175"/>
+      <c r="R17" s="1176"/>
+      <c r="S17" s="1176"/>
+      <c r="T17" s="1176"/>
+      <c r="U17" s="1176"/>
+      <c r="V17" s="1176"/>
+      <c r="W17" s="1176"/>
+      <c r="X17" s="1176"/>
+      <c r="Y17" s="1176"/>
+      <c r="Z17" s="1176"/>
+      <c r="AA17" s="1176"/>
+      <c r="AB17" s="1176"/>
+      <c r="AC17" s="1176"/>
+      <c r="AD17" s="1176"/>
+      <c r="AE17" s="1177"/>
+      <c r="AF17" s="1172"/>
+      <c r="AG17" s="1173"/>
+      <c r="AH17" s="1173"/>
+      <c r="AI17" s="1174"/>
+    </row>
+    <row r="18" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="1166"/>
+      <c r="B18" s="1178"/>
+      <c r="C18" s="1179"/>
+      <c r="D18" s="1167"/>
+      <c r="E18" s="1168"/>
+      <c r="F18" s="1169"/>
+      <c r="G18" s="1180"/>
+      <c r="H18" s="1170"/>
+      <c r="I18" s="1171"/>
+      <c r="J18" s="1172"/>
+      <c r="K18" s="1173"/>
+      <c r="L18" s="1173"/>
+      <c r="M18" s="1173"/>
+      <c r="N18" s="1173"/>
+      <c r="O18" s="1173"/>
+      <c r="P18" s="1174"/>
+      <c r="Q18" s="1175"/>
+      <c r="R18" s="1176"/>
+      <c r="S18" s="1176"/>
+      <c r="T18" s="1176"/>
+      <c r="U18" s="1176"/>
+      <c r="V18" s="1176"/>
+      <c r="W18" s="1176"/>
+      <c r="X18" s="1176"/>
+      <c r="Y18" s="1176"/>
+      <c r="Z18" s="1176"/>
+      <c r="AA18" s="1176"/>
+      <c r="AB18" s="1176"/>
+      <c r="AC18" s="1176"/>
+      <c r="AD18" s="1176"/>
+      <c r="AE18" s="1177"/>
+      <c r="AF18" s="1172"/>
+      <c r="AG18" s="1173"/>
+      <c r="AH18" s="1173"/>
+      <c r="AI18" s="1174"/>
+    </row>
+    <row r="19" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="1166"/>
+      <c r="B19" s="1178"/>
+      <c r="C19" s="1179"/>
+      <c r="D19" s="1167"/>
+      <c r="E19" s="1168"/>
+      <c r="F19" s="1169"/>
+      <c r="G19" s="1180"/>
+      <c r="H19" s="1170"/>
+      <c r="I19" s="1171"/>
+      <c r="J19" s="1172"/>
+      <c r="K19" s="1173"/>
+      <c r="L19" s="1173"/>
+      <c r="M19" s="1173"/>
+      <c r="N19" s="1173"/>
+      <c r="O19" s="1173"/>
+      <c r="P19" s="1174"/>
+      <c r="Q19" s="1175"/>
+      <c r="R19" s="1176"/>
+      <c r="S19" s="1176"/>
+      <c r="T19" s="1176"/>
+      <c r="U19" s="1176"/>
+      <c r="V19" s="1176"/>
+      <c r="W19" s="1176"/>
+      <c r="X19" s="1176"/>
+      <c r="Y19" s="1176"/>
+      <c r="Z19" s="1176"/>
+      <c r="AA19" s="1176"/>
+      <c r="AB19" s="1176"/>
+      <c r="AC19" s="1176"/>
+      <c r="AD19" s="1176"/>
+      <c r="AE19" s="1177"/>
+      <c r="AF19" s="1172"/>
+      <c r="AG19" s="1173"/>
+      <c r="AH19" s="1173"/>
+      <c r="AI19" s="1174"/>
+    </row>
+    <row r="20" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="1166"/>
+      <c r="B20" s="1178"/>
+      <c r="C20" s="1179"/>
+      <c r="D20" s="1167"/>
+      <c r="E20" s="1168"/>
+      <c r="F20" s="1169"/>
+      <c r="G20" s="1180"/>
+      <c r="H20" s="1170"/>
+      <c r="I20" s="1171"/>
+      <c r="J20" s="1172"/>
+      <c r="K20" s="1173"/>
+      <c r="L20" s="1173"/>
+      <c r="M20" s="1173"/>
+      <c r="N20" s="1173"/>
+      <c r="O20" s="1173"/>
+      <c r="P20" s="1174"/>
+      <c r="Q20" s="1175"/>
+      <c r="R20" s="1176"/>
+      <c r="S20" s="1176"/>
+      <c r="T20" s="1176"/>
+      <c r="U20" s="1176"/>
+      <c r="V20" s="1176"/>
+      <c r="W20" s="1176"/>
+      <c r="X20" s="1176"/>
+      <c r="Y20" s="1176"/>
+      <c r="Z20" s="1176"/>
+      <c r="AA20" s="1176"/>
+      <c r="AB20" s="1176"/>
+      <c r="AC20" s="1176"/>
+      <c r="AD20" s="1176"/>
+      <c r="AE20" s="1177"/>
+      <c r="AF20" s="1172"/>
+      <c r="AG20" s="1173"/>
+      <c r="AH20" s="1173"/>
+      <c r="AI20" s="1174"/>
+    </row>
+    <row r="21" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="1166"/>
+      <c r="B21" s="1178"/>
+      <c r="C21" s="1179"/>
+      <c r="D21" s="1167"/>
+      <c r="E21" s="1168"/>
+      <c r="F21" s="1169"/>
+      <c r="G21" s="1180"/>
+      <c r="H21" s="1170"/>
+      <c r="I21" s="1171"/>
+      <c r="J21" s="1172"/>
+      <c r="K21" s="1173"/>
+      <c r="L21" s="1173"/>
+      <c r="M21" s="1173"/>
+      <c r="N21" s="1173"/>
+      <c r="O21" s="1173"/>
+      <c r="P21" s="1174"/>
+      <c r="Q21" s="1175"/>
+      <c r="R21" s="1176"/>
+      <c r="S21" s="1176"/>
+      <c r="T21" s="1176"/>
+      <c r="U21" s="1176"/>
+      <c r="V21" s="1176"/>
+      <c r="W21" s="1176"/>
+      <c r="X21" s="1176"/>
+      <c r="Y21" s="1176"/>
+      <c r="Z21" s="1176"/>
+      <c r="AA21" s="1176"/>
+      <c r="AB21" s="1176"/>
+      <c r="AC21" s="1176"/>
+      <c r="AD21" s="1176"/>
+      <c r="AE21" s="1177"/>
+      <c r="AF21" s="1172"/>
+      <c r="AG21" s="1173"/>
+      <c r="AH21" s="1173"/>
+      <c r="AI21" s="1174"/>
+    </row>
+    <row r="22" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="1166"/>
+      <c r="B22" s="1178"/>
+      <c r="C22" s="1179"/>
+      <c r="D22" s="1167"/>
+      <c r="E22" s="1168"/>
+      <c r="F22" s="1169"/>
+      <c r="G22" s="1180"/>
+      <c r="H22" s="1170"/>
+      <c r="I22" s="1171"/>
+      <c r="J22" s="1172"/>
+      <c r="K22" s="1173"/>
+      <c r="L22" s="1173"/>
+      <c r="M22" s="1173"/>
+      <c r="N22" s="1173"/>
+      <c r="O22" s="1173"/>
+      <c r="P22" s="1174"/>
+      <c r="Q22" s="1175"/>
+      <c r="R22" s="1176"/>
+      <c r="S22" s="1176"/>
+      <c r="T22" s="1176"/>
+      <c r="U22" s="1176"/>
+      <c r="V22" s="1176"/>
+      <c r="W22" s="1176"/>
+      <c r="X22" s="1176"/>
+      <c r="Y22" s="1176"/>
+      <c r="Z22" s="1176"/>
+      <c r="AA22" s="1176"/>
+      <c r="AB22" s="1176"/>
+      <c r="AC22" s="1176"/>
+      <c r="AD22" s="1176"/>
+      <c r="AE22" s="1177"/>
+      <c r="AF22" s="1172"/>
+      <c r="AG22" s="1173"/>
+      <c r="AH22" s="1173"/>
+      <c r="AI22" s="1174"/>
+    </row>
+    <row r="23" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="1166"/>
+      <c r="B23" s="1178"/>
+      <c r="C23" s="1179"/>
+      <c r="D23" s="1167"/>
+      <c r="E23" s="1168"/>
+      <c r="F23" s="1169"/>
+      <c r="G23" s="1180"/>
+      <c r="H23" s="1170"/>
+      <c r="I23" s="1171"/>
+      <c r="J23" s="1172"/>
+      <c r="K23" s="1173"/>
+      <c r="L23" s="1173"/>
+      <c r="M23" s="1173"/>
+      <c r="N23" s="1173"/>
+      <c r="O23" s="1173"/>
+      <c r="P23" s="1174"/>
+      <c r="Q23" s="1175"/>
+      <c r="R23" s="1176"/>
+      <c r="S23" s="1176"/>
+      <c r="T23" s="1176"/>
+      <c r="U23" s="1176"/>
+      <c r="V23" s="1176"/>
+      <c r="W23" s="1176"/>
+      <c r="X23" s="1176"/>
+      <c r="Y23" s="1176"/>
+      <c r="Z23" s="1176"/>
+      <c r="AA23" s="1176"/>
+      <c r="AB23" s="1176"/>
+      <c r="AC23" s="1176"/>
+      <c r="AD23" s="1176"/>
+      <c r="AE23" s="1177"/>
+      <c r="AF23" s="1172"/>
+      <c r="AG23" s="1173"/>
+      <c r="AH23" s="1173"/>
+      <c r="AI23" s="1174"/>
+    </row>
+    <row r="24" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="1166"/>
+      <c r="B24" s="1178"/>
+      <c r="C24" s="1179"/>
+      <c r="D24" s="1167"/>
+      <c r="E24" s="1168"/>
+      <c r="F24" s="1169"/>
+      <c r="G24" s="1180"/>
+      <c r="H24" s="1170"/>
+      <c r="I24" s="1171"/>
+      <c r="J24" s="1172"/>
+      <c r="K24" s="1173"/>
+      <c r="L24" s="1173"/>
+      <c r="M24" s="1173"/>
+      <c r="N24" s="1173"/>
+      <c r="O24" s="1173"/>
+      <c r="P24" s="1174"/>
+      <c r="Q24" s="1175"/>
+      <c r="R24" s="1176"/>
+      <c r="S24" s="1176"/>
+      <c r="T24" s="1176"/>
+      <c r="U24" s="1176"/>
+      <c r="V24" s="1176"/>
+      <c r="W24" s="1176"/>
+      <c r="X24" s="1176"/>
+      <c r="Y24" s="1176"/>
+      <c r="Z24" s="1176"/>
+      <c r="AA24" s="1176"/>
+      <c r="AB24" s="1176"/>
+      <c r="AC24" s="1176"/>
+      <c r="AD24" s="1176"/>
+      <c r="AE24" s="1177"/>
+      <c r="AF24" s="1172"/>
+      <c r="AG24" s="1173"/>
+      <c r="AH24" s="1173"/>
+      <c r="AI24" s="1174"/>
+    </row>
+    <row r="25" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="1166"/>
+      <c r="B25" s="1178"/>
+      <c r="C25" s="1179"/>
+      <c r="D25" s="1167"/>
+      <c r="E25" s="1168"/>
+      <c r="F25" s="1169"/>
+      <c r="G25" s="1180"/>
+      <c r="H25" s="1170"/>
+      <c r="I25" s="1171"/>
+      <c r="J25" s="1172"/>
+      <c r="K25" s="1173"/>
+      <c r="L25" s="1173"/>
+      <c r="M25" s="1173"/>
+      <c r="N25" s="1173"/>
+      <c r="O25" s="1173"/>
+      <c r="P25" s="1174"/>
+      <c r="Q25" s="1175"/>
+      <c r="R25" s="1176"/>
+      <c r="S25" s="1176"/>
+      <c r="T25" s="1176"/>
+      <c r="U25" s="1176"/>
+      <c r="V25" s="1176"/>
+      <c r="W25" s="1176"/>
+      <c r="X25" s="1176"/>
+      <c r="Y25" s="1176"/>
+      <c r="Z25" s="1176"/>
+      <c r="AA25" s="1176"/>
+      <c r="AB25" s="1176"/>
+      <c r="AC25" s="1176"/>
+      <c r="AD25" s="1176"/>
+      <c r="AE25" s="1177"/>
+      <c r="AF25" s="1172"/>
+      <c r="AG25" s="1173"/>
+      <c r="AH25" s="1173"/>
+      <c r="AI25" s="1174"/>
+    </row>
+    <row r="26" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="1166"/>
+      <c r="B26" s="1178"/>
+      <c r="C26" s="1179"/>
+      <c r="D26" s="1167"/>
+      <c r="E26" s="1168"/>
+      <c r="F26" s="1169"/>
+      <c r="G26" s="1180"/>
+      <c r="H26" s="1170"/>
+      <c r="I26" s="1171"/>
+      <c r="J26" s="1172"/>
+      <c r="K26" s="1173"/>
+      <c r="L26" s="1173"/>
+      <c r="M26" s="1173"/>
+      <c r="N26" s="1173"/>
+      <c r="O26" s="1173"/>
+      <c r="P26" s="1174"/>
+      <c r="Q26" s="1175"/>
+      <c r="R26" s="1176"/>
+      <c r="S26" s="1176"/>
+      <c r="T26" s="1176"/>
+      <c r="U26" s="1176"/>
+      <c r="V26" s="1176"/>
+      <c r="W26" s="1176"/>
+      <c r="X26" s="1176"/>
+      <c r="Y26" s="1176"/>
+      <c r="Z26" s="1176"/>
+      <c r="AA26" s="1176"/>
+      <c r="AB26" s="1176"/>
+      <c r="AC26" s="1176"/>
+      <c r="AD26" s="1176"/>
+      <c r="AE26" s="1177"/>
+      <c r="AF26" s="1172"/>
+      <c r="AG26" s="1173"/>
+      <c r="AH26" s="1173"/>
+      <c r="AI26" s="1174"/>
+    </row>
+    <row r="27" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="1166"/>
+      <c r="B27" s="1178"/>
+      <c r="C27" s="1179"/>
+      <c r="D27" s="1167"/>
+      <c r="E27" s="1168"/>
+      <c r="F27" s="1169"/>
+      <c r="G27" s="1180"/>
+      <c r="H27" s="1170"/>
+      <c r="I27" s="1171"/>
+      <c r="J27" s="1172"/>
+      <c r="K27" s="1173"/>
+      <c r="L27" s="1173"/>
+      <c r="M27" s="1173"/>
+      <c r="N27" s="1173"/>
+      <c r="O27" s="1173"/>
+      <c r="P27" s="1174"/>
+      <c r="Q27" s="1175"/>
+      <c r="R27" s="1176"/>
+      <c r="S27" s="1176"/>
+      <c r="T27" s="1176"/>
+      <c r="U27" s="1176"/>
+      <c r="V27" s="1176"/>
+      <c r="W27" s="1176"/>
+      <c r="X27" s="1176"/>
+      <c r="Y27" s="1176"/>
+      <c r="Z27" s="1176"/>
+      <c r="AA27" s="1176"/>
+      <c r="AB27" s="1176"/>
+      <c r="AC27" s="1176"/>
+      <c r="AD27" s="1176"/>
+      <c r="AE27" s="1177"/>
+      <c r="AF27" s="1172"/>
+      <c r="AG27" s="1173"/>
+      <c r="AH27" s="1173"/>
+      <c r="AI27" s="1174"/>
+    </row>
+    <row r="28" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="1166"/>
+      <c r="B28" s="1178"/>
+      <c r="C28" s="1179"/>
+      <c r="D28" s="1167"/>
+      <c r="E28" s="1168"/>
+      <c r="F28" s="1169"/>
+      <c r="G28" s="1180"/>
+      <c r="H28" s="1170"/>
+      <c r="I28" s="1171"/>
+      <c r="J28" s="1172"/>
+      <c r="K28" s="1173"/>
+      <c r="L28" s="1173"/>
+      <c r="M28" s="1173"/>
+      <c r="N28" s="1173"/>
+      <c r="O28" s="1173"/>
+      <c r="P28" s="1174"/>
+      <c r="Q28" s="1175"/>
+      <c r="R28" s="1176"/>
+      <c r="S28" s="1176"/>
+      <c r="T28" s="1176"/>
+      <c r="U28" s="1176"/>
+      <c r="V28" s="1176"/>
+      <c r="W28" s="1176"/>
+      <c r="X28" s="1176"/>
+      <c r="Y28" s="1176"/>
+      <c r="Z28" s="1176"/>
+      <c r="AA28" s="1176"/>
+      <c r="AB28" s="1176"/>
+      <c r="AC28" s="1176"/>
+      <c r="AD28" s="1176"/>
+      <c r="AE28" s="1177"/>
+      <c r="AF28" s="1172"/>
+      <c r="AG28" s="1173"/>
+      <c r="AH28" s="1173"/>
+      <c r="AI28" s="1174"/>
+    </row>
+    <row r="29" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="1166"/>
+      <c r="B29" s="1178"/>
+      <c r="C29" s="1179"/>
+      <c r="D29" s="1167"/>
+      <c r="E29" s="1168"/>
+      <c r="F29" s="1169"/>
+      <c r="G29" s="1180"/>
+      <c r="H29" s="1170"/>
+      <c r="I29" s="1171"/>
+      <c r="J29" s="1172"/>
+      <c r="K29" s="1173"/>
+      <c r="L29" s="1173"/>
+      <c r="M29" s="1173"/>
+      <c r="N29" s="1173"/>
+      <c r="O29" s="1173"/>
+      <c r="P29" s="1174"/>
+      <c r="Q29" s="1175"/>
+      <c r="R29" s="1176"/>
+      <c r="S29" s="1176"/>
+      <c r="T29" s="1176"/>
+      <c r="U29" s="1176"/>
+      <c r="V29" s="1176"/>
+      <c r="W29" s="1176"/>
+      <c r="X29" s="1176"/>
+      <c r="Y29" s="1176"/>
+      <c r="Z29" s="1176"/>
+      <c r="AA29" s="1176"/>
+      <c r="AB29" s="1176"/>
+      <c r="AC29" s="1176"/>
+      <c r="AD29" s="1176"/>
+      <c r="AE29" s="1177"/>
+      <c r="AF29" s="1172"/>
+      <c r="AG29" s="1173"/>
+      <c r="AH29" s="1173"/>
+      <c r="AI29" s="1174"/>
+    </row>
+    <row r="30" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="1166"/>
+      <c r="B30" s="1178"/>
+      <c r="C30" s="1179"/>
+      <c r="D30" s="1167"/>
+      <c r="E30" s="1168"/>
+      <c r="F30" s="1169"/>
+      <c r="G30" s="1180"/>
+      <c r="H30" s="1170"/>
+      <c r="I30" s="1171"/>
+      <c r="J30" s="1172"/>
+      <c r="K30" s="1173"/>
+      <c r="L30" s="1173"/>
+      <c r="M30" s="1173"/>
+      <c r="N30" s="1173"/>
+      <c r="O30" s="1173"/>
+      <c r="P30" s="1174"/>
+      <c r="Q30" s="1175"/>
+      <c r="R30" s="1176"/>
+      <c r="S30" s="1176"/>
+      <c r="T30" s="1176"/>
+      <c r="U30" s="1176"/>
+      <c r="V30" s="1176"/>
+      <c r="W30" s="1176"/>
+      <c r="X30" s="1176"/>
+      <c r="Y30" s="1176"/>
+      <c r="Z30" s="1176"/>
+      <c r="AA30" s="1176"/>
+      <c r="AB30" s="1176"/>
+      <c r="AC30" s="1176"/>
+      <c r="AD30" s="1176"/>
+      <c r="AE30" s="1177"/>
+      <c r="AF30" s="1172"/>
+      <c r="AG30" s="1173"/>
+      <c r="AH30" s="1173"/>
+      <c r="AI30" s="1174"/>
+    </row>
+    <row r="31" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="1166"/>
+      <c r="B31" s="1178"/>
+      <c r="C31" s="1179"/>
+      <c r="D31" s="1167"/>
+      <c r="E31" s="1168"/>
+      <c r="F31" s="1169"/>
+      <c r="G31" s="1180"/>
+      <c r="H31" s="1170"/>
+      <c r="I31" s="1171"/>
+      <c r="J31" s="1172"/>
+      <c r="K31" s="1173"/>
+      <c r="L31" s="1173"/>
+      <c r="M31" s="1173"/>
+      <c r="N31" s="1173"/>
+      <c r="O31" s="1173"/>
+      <c r="P31" s="1174"/>
+      <c r="Q31" s="1175"/>
+      <c r="R31" s="1176"/>
+      <c r="S31" s="1176"/>
+      <c r="T31" s="1176"/>
+      <c r="U31" s="1176"/>
+      <c r="V31" s="1176"/>
+      <c r="W31" s="1176"/>
+      <c r="X31" s="1176"/>
+      <c r="Y31" s="1176"/>
+      <c r="Z31" s="1176"/>
+      <c r="AA31" s="1176"/>
+      <c r="AB31" s="1176"/>
+      <c r="AC31" s="1176"/>
+      <c r="AD31" s="1176"/>
+      <c r="AE31" s="1177"/>
+      <c r="AF31" s="1172"/>
+      <c r="AG31" s="1173"/>
+      <c r="AH31" s="1173"/>
+      <c r="AI31" s="1174"/>
+    </row>
+    <row r="32" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="1166"/>
+      <c r="B32" s="1178"/>
+      <c r="C32" s="1179"/>
+      <c r="D32" s="1167"/>
+      <c r="E32" s="1168"/>
+      <c r="F32" s="1169"/>
+      <c r="G32" s="1180"/>
+      <c r="H32" s="1170"/>
+      <c r="I32" s="1171"/>
+      <c r="J32" s="1172"/>
+      <c r="K32" s="1181"/>
+      <c r="L32" s="1173"/>
+      <c r="M32" s="1173"/>
+      <c r="N32" s="1173"/>
+      <c r="O32" s="1173"/>
+      <c r="P32" s="1174"/>
+      <c r="Q32" s="1175"/>
+      <c r="R32" s="1176"/>
+      <c r="S32" s="1176"/>
+      <c r="T32" s="1176"/>
+      <c r="U32" s="1176"/>
+      <c r="V32" s="1176"/>
+      <c r="W32" s="1176"/>
+      <c r="X32" s="1176"/>
+      <c r="Y32" s="1176"/>
+      <c r="Z32" s="1176"/>
+      <c r="AA32" s="1176"/>
+      <c r="AB32" s="1176"/>
+      <c r="AC32" s="1176"/>
+      <c r="AD32" s="1176"/>
+      <c r="AE32" s="1177"/>
+      <c r="AF32" s="1172"/>
+      <c r="AG32" s="1173"/>
+      <c r="AH32" s="1173"/>
+      <c r="AI32" s="1174"/>
+    </row>
+    <row r="33" spans="1:35" s="1158" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="1166"/>
+      <c r="B33" s="1178"/>
+      <c r="C33" s="1179"/>
+      <c r="D33" s="1167"/>
+      <c r="E33" s="1168"/>
+      <c r="F33" s="1169"/>
+      <c r="G33" s="1180"/>
+      <c r="H33" s="1170"/>
+      <c r="I33" s="1171"/>
+      <c r="J33" s="1172"/>
+      <c r="K33" s="1173"/>
+      <c r="L33" s="1173"/>
+      <c r="M33" s="1173"/>
+      <c r="N33" s="1173"/>
+      <c r="O33" s="1173"/>
+      <c r="P33" s="1174"/>
+      <c r="Q33" s="1175"/>
+      <c r="R33" s="1176"/>
+      <c r="S33" s="1176"/>
+      <c r="T33" s="1176"/>
+      <c r="U33" s="1176"/>
+      <c r="V33" s="1176"/>
+      <c r="W33" s="1176"/>
+      <c r="X33" s="1176"/>
+      <c r="Y33" s="1176"/>
+      <c r="Z33" s="1176"/>
+      <c r="AA33" s="1176"/>
+      <c r="AB33" s="1176"/>
+      <c r="AC33" s="1176"/>
+      <c r="AD33" s="1176"/>
+      <c r="AE33" s="1177"/>
+      <c r="AF33" s="1172"/>
+      <c r="AG33" s="1173"/>
+      <c r="AH33" s="1173"/>
+      <c r="AI33" s="1174"/>
+    </row>
+    <row r="34" spans="1:35" ht="15.75">
+      <c r="K34" s="1183"/>
+    </row>
+  </sheetData>
+  <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
@@ -16983,7 +20165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
@@ -20404,7 +23586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
@@ -21893,7 +25075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F314FBF8-C0BC-4EC3-8A47-DEC084A9E9F6}">
   <dimension ref="A1:E68"/>
   <sheetViews>
